--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_aux_Palaos/Pandémie_de_Covid-19_aux_Palaos.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_aux_Palaos/Pandémie_de_Covid-19_aux_Palaos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_aux_Palaos</t>
+          <t>Pandémie_de_Covid-19_aux_Palaos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 aux Palaos démarre officiellement le 30 mai 2020. À la date du 21 septembre 2022, le bilan est de 6 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_aux_Palaos</t>
+          <t>Pandémie_de_Covid-19_aux_Palaos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Premières mesures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 23 janvier 2020, les Palaos mettent en place des procédures de dépistage des individus symptomatiques au port de Malakal et à l'aéroport international des Palaos[2]. Le pays ferme ensuite totalement ses frontières à la mi-mars 2020, y compris aux navires de croisières importants pour l'économie des Palaos, dépendante du tourisme[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 23 janvier 2020, les Palaos mettent en place des procédures de dépistage des individus symptomatiques au port de Malakal et à l'aéroport international des Palaos. Le pays ferme ensuite totalement ses frontières à la mi-mars 2020, y compris aux navires de croisières importants pour l'économie des Palaos, dépendante du tourisme.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_aux_Palaos</t>
+          <t>Pandémie_de_Covid-19_aux_Palaos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Premier cas</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 30 mai 2021, un homme arrivé de Guam le 9 mai s'avère atteint par le virus. Il avait été « pleinement vacciné » et testé deux fois avant son entrée dans le pays, mais placé en quarantaine comme toutes les personnes entrant aux Palaos. Après un nouveau test négatif, un test se révèle positif après trois semaines de quarantaine[4]. De ce fait, les autorités le considèrent comme un cas historique très probablement non-infectieux[5]. Il n'a pas été en contact avec la population, et à cette date, 97 % de la population adulte des Palaos a déjà été vaccinée contre le virus[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 30 mai 2021, un homme arrivé de Guam le 9 mai s'avère atteint par le virus. Il avait été « pleinement vacciné » et testé deux fois avant son entrée dans le pays, mais placé en quarantaine comme toutes les personnes entrant aux Palaos. Après un nouveau test négatif, un test se révèle positif après trois semaines de quarantaine. De ce fait, les autorités le considèrent comme un cas historique très probablement non-infectieux. Il n'a pas été en contact avec la population, et à cette date, 97 % de la population adulte des Palaos a déjà été vaccinée contre le virus.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_aux_Palaos</t>
+          <t>Pandémie_de_Covid-19_aux_Palaos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
